--- a/VersionRecords/Version 5.1.3 20161130/版本Bug和特性计划及评审表v5.1.3_架构组.xlsx
+++ b/VersionRecords/Version 5.1.3 20161130/版本Bug和特性计划及评审表v5.1.3_架构组.xlsx
@@ -284,7 +284,7 @@
     <t>否</t>
   </si>
   <si>
-    <t>基础框架、BS、定时器</t>
+    <t>基础框架、定时器</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1351,7 +1351,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
